--- a/biology/Zoologie/Bryochoerus_intermedius/Bryochoerus_intermedius.xlsx
+++ b/biology/Zoologie/Bryochoerus_intermedius/Bryochoerus_intermedius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bryochoerus intermedius est une espèce de tardigrades de la famille des Echiniscidae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en Allemagne, en Autriche, au Brésil, en Australie et à Hawaï.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Degma, Bertolani et Guidetti, 2017[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Degma, Bertolani et Guidetti, 2017 :
 Bryochoerus intermedius intermedius (Murray, 1910) d'Allemagne et Autriche
 Bryochoerus intermedius hawaiicus (Thulin, 1928) de Hawaï
 Bryochoerus intermedius laevis (Marcus, 1936) d'Australie et du Brésil</t>
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Murray, 1910 : Tardigrada. British Antarctic Exped. 1907-9 under the command of Sir E. H. Shackleton, C.V.O. Reports on the Scientific Investigations, vol. 1, no 5, p. 83-185.
 Thulin, 1928 : Über die Phylogenie und das System der Tardigraden. Hereditas, vol. 11, no 2/3, p. 207-266.
